--- a/data/trans_dic/P36$huevo-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,27</t>
+          <t>1,37; 3,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,38</t>
+          <t>2,83; 5,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,26</t>
+          <t>2,46; 5,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,89</t>
+          <t>0,69; 2,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,81</t>
+          <t>1,27; 2,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,55</t>
+          <t>3,02; 5,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,34</t>
+          <t>1,16; 2,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,49</t>
+          <t>2,15; 3,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,9</t>
+          <t>3,11; 5,01</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,74</t>
+          <t>3,63; 5,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,71</t>
+          <t>3,85; 5,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,69</t>
+          <t>7,17; 9,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,96</t>
+          <t>2,18; 3,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,84</t>
+          <t>2,06; 3,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,19</t>
+          <t>5,81; 8,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,56</t>
+          <t>3,19; 4,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 4,53</t>
+          <t>3,25; 4,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 8,53</t>
+          <t>6,78; 8,5</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,23</t>
+          <t>1,92; 5,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,36</t>
+          <t>1,46; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,36</t>
+          <t>6,52; 11,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,33</t>
+          <t>0,7; 3,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,39</t>
+          <t>0,61; 3,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,41</t>
+          <t>4,05; 8,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,81</t>
+          <t>1,72; 3,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,15</t>
+          <t>1,17; 3,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,32</t>
+          <t>5,82; 9,15</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,31</t>
+          <t>3,05; 4,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 4,98</t>
+          <t>3,52; 4,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,31</t>
+          <t>6,54; 8,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,63</t>
+          <t>1,64; 2,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,89</t>
+          <t>1,8; 2,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 6,85</t>
+          <t>5,13; 6,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,25</t>
+          <t>2,45; 3,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,7</t>
+          <t>2,84; 3,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 7,24</t>
+          <t>6,07; 7,29</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, alimentos como huevos, queso, jamón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22379</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38671</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27669</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15613</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25403</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>41069</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37992</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64074</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68738</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14094; 33736</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27569; 51602</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18547; 37855</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9073; 26587</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17019; 37662</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30001; 56480</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27235; 52250</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49515; 81833</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54238; 87473</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77595</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>92400</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>173035</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47063</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>50201</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>136243</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>124657</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>142601</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>309277</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>61451; 97576</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>75518; 113114</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>148713; 198247</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34606; 62792</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36207; 65353</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>115453; 160555</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104696; 151014</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>120946; 168304</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>275421; 345051</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18018</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12149</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48155</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7983</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7080</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33067</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26001</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19229</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>81221</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10533; 29617</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7009; 21432</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35678; 64060</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3317; 17033</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2808; 14618</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22223; 46479</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17628; 38840</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10967; 29646</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63836; 100278</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>117992</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>143221</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>248858</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>70658</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>82684</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>210378</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>188650</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>225905</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>459236</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>99597; 142048</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>120220; 167324</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>220483; 282535</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55194; 89177</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63711; 102171</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>181178; 242005</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>162591; 218052</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>197586; 258156</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>419140; 503117</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>